--- a/data/AcadYearDatasheet.xlsx
+++ b/data/AcadYearDatasheet.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Library System\mapua-lab-usage-and-monitoring-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBF1769-AA6D-491B-A50B-95FE68E52E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99780ABA-D33E-484F-B5EF-D0C7D88D6D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{82D652CF-2253-4CE4-9C61-00D8B922514B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{82D652CF-2253-4CE4-9C61-00D8B922514B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="110">
   <si>
     <t>SY-2024-2025</t>
   </si>
@@ -322,6 +325,48 @@
   </si>
   <si>
     <t>BMCE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>7:00-8:00</t>
+  </si>
+  <si>
+    <t>8:00-9:00</t>
+  </si>
+  <si>
+    <t>9:00-10:00</t>
+  </si>
+  <si>
+    <t>10:00-11:00</t>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+  </si>
+  <si>
+    <t>12:00-1:00</t>
+  </si>
+  <si>
+    <t>1:00-2:00</t>
+  </si>
+  <si>
+    <t>2:00-3:00</t>
+  </si>
+  <si>
+    <t>3:00-4:00</t>
+  </si>
+  <si>
+    <t>4:00-5:00</t>
+  </si>
+  <si>
+    <t>5:00-6:00</t>
+  </si>
+  <si>
+    <t>6:00-7:00</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -384,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -433,23 +478,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -473,9 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,6 +528,88 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Summary (3)"/>
+      <sheetName val="Summary"/>
+      <sheetName val="TERM"/>
+      <sheetName val="August'24"/>
+      <sheetName val="September"/>
+      <sheetName val="October"/>
+      <sheetName val="November"/>
+      <sheetName val="December"/>
+      <sheetName val="January'25"/>
+      <sheetName val="February"/>
+      <sheetName val="March"/>
+      <sheetName val="April"/>
+      <sheetName val="May"/>
+      <sheetName val="June"/>
+      <sheetName val="July'25"/>
+      <sheetName val="TOTALOCT22"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="100">
+          <cell r="AG100">
+            <v>4304</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="100">
+          <cell r="AG100">
+            <v>3858</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="100">
+          <cell r="AG100">
+            <v>4213</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="100">
+          <cell r="AG100">
+            <v>3743</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="100">
+          <cell r="AG100">
+            <v>3190</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="100">
+          <cell r="AG100">
+            <v>3962</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72FEE4B-8C85-4215-B243-6E52A2685CAD}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="P100" sqref="P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,3643 +921,4439 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B4" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C4" s="10">
         <v>55</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D4" s="10">
         <v>23</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E4" s="10">
         <v>123</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F4" s="10">
         <v>112</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G4" s="10">
         <v>56</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H4" s="10">
         <v>55</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I4" s="10">
         <v>77</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J4" s="10">
         <v>33</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K4" s="10">
         <v>44</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L4" s="10">
         <v>26</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M4" s="10">
         <v>36</v>
       </c>
-      <c r="N3" s="9">
-        <f>SUM(B3:M3)</f>
+      <c r="N4" s="10">
+        <f>SUM(B4:M4)</f>
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="10">
         <v>45</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="10">
         <v>251</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D5" s="10">
         <v>41</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E5" s="10">
         <v>88</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="10">
         <v>43</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G5" s="10">
         <v>52</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="10">
         <v>14</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I5" s="10">
         <v>63</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J5" s="10">
         <v>89</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K5" s="10">
         <v>65</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L5" s="10">
         <v>67</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M5" s="10">
         <v>55</v>
       </c>
-      <c r="N4" s="9">
-        <f t="shared" ref="N4:N67" si="0">SUM(B4:M4)</f>
+      <c r="N5" s="10">
+        <f t="shared" ref="N5:N68" si="0">SUM(B5:M5)</f>
         <v>873</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B6" s="10">
         <v>55</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C6" s="10">
         <v>21</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D6" s="10">
         <v>23</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E6" s="10">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="10">
         <v>51</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G6" s="10">
         <v>42</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H6" s="10">
         <v>16</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I6" s="10">
         <v>39</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J6" s="10">
         <v>56</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K6" s="10">
         <v>24</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L6" s="10">
         <v>25</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M6" s="10">
         <v>44</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N6" s="10">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="10">
         <v>54</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="10">
         <v>23</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="10">
         <v>55</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="10">
         <v>15</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="10">
         <v>42</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="10">
         <v>15</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="10">
         <v>63</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="10">
         <v>151</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J7" s="10">
         <v>35</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="10">
         <v>45</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="10">
         <v>12</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M7" s="10">
         <v>45</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B8" s="10">
         <v>52</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="10">
         <v>14</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D8" s="10">
         <v>111</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="10">
         <v>145</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="10">
         <v>452</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="10">
         <v>16</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="10">
         <v>21</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="10">
         <v>11</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J8" s="10">
         <v>52</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="10">
         <v>46</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="10">
         <v>55</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M8" s="10">
         <v>14</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>989</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="10">
         <v>117</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="10">
         <v>842</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="10">
         <v>117</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="10">
         <v>1399</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="10">
         <v>456</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="10">
         <v>1203</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="10">
         <v>98</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="10">
         <v>611</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J9" s="10">
         <v>1442</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="10">
         <v>375</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="10">
         <v>1091</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M9" s="10">
         <v>267</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N9" s="10">
         <f t="shared" si="0"/>
         <v>8018</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B10" s="10">
         <v>1488</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="10">
         <v>512</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="10">
         <v>1488</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="10">
         <v>203</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="10">
         <v>964</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G10" s="10">
         <v>781</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="10">
         <v>1314</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="10">
         <v>55</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J10" s="10">
         <v>1027</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="10">
         <v>688</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="10">
         <v>419</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M10" s="10">
         <v>1460</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N10" s="10">
         <f t="shared" si="0"/>
         <v>10399</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B11" s="10">
         <v>332</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="10">
         <v>1299</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="10">
         <v>332</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="10">
         <v>914</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="10">
         <v>1407</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="10">
         <v>276</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="10">
         <v>67</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="10">
         <v>1188</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J11" s="10">
         <v>593</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="10">
         <v>1012</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="10">
         <v>458</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M11" s="10">
         <v>845</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="10">
         <f t="shared" si="0"/>
         <v>8723</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B12" s="10">
         <v>1356</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="10">
         <v>721</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="10">
         <v>1356</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="10">
         <v>184</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="10">
         <v>999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="10">
         <v>63</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H12" s="10">
         <v>411</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I12" s="10">
         <v>1472</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J12" s="10">
         <v>520</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="10">
         <v>1229</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L12" s="10">
         <v>301</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M12" s="10">
         <v>896</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N12" s="10">
         <f t="shared" si="0"/>
         <v>9508</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B13" s="10">
         <v>278</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="10">
         <v>1449</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D13" s="10">
         <v>278</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="10">
         <v>654</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="10">
         <v>1106</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="10">
         <v>94</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="10">
         <v>1362</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="10">
         <v>487</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J13" s="10">
         <v>825</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K13" s="10">
         <v>359</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L13" s="10">
         <v>1288</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M13" s="10">
         <v>716</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N13" s="10">
         <f t="shared" si="0"/>
         <v>8896</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="10">
         <v>1211</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="10">
         <v>538</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D14" s="10">
         <v>1211</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="10">
         <v>412</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="10">
         <v>89</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="10">
         <v>1423</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="10">
         <v>697</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="10">
         <v>1054</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="10">
         <v>266</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="10">
         <v>911</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="10">
         <v>1340</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M14" s="10">
         <v>158</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="10">
         <f t="shared" si="0"/>
         <v>9310</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B15" s="10">
         <v>345</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C15" s="10">
         <v>1018</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="10">
         <v>345</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="10">
         <v>1466</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="10">
         <v>522</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="10">
         <v>780</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="10">
         <v>1294</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="10">
         <v>67</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J15" s="10">
         <v>603</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="10">
         <v>1182</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="10">
         <v>944</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M15" s="10">
         <v>231</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="10">
         <f t="shared" si="0"/>
         <v>8797</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B16" s="10">
         <v>1379</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C16" s="10">
         <v>499</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D16" s="10">
         <v>1379</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="10">
         <v>104</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="10">
         <v>816</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="10">
         <v>1218</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="10">
         <v>392</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="10">
         <v>985</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J16" s="10">
         <v>54</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="10">
         <v>1457</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="10">
         <v>683</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M16" s="10">
         <v>1109</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="10">
         <f t="shared" si="0"/>
         <v>10075</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="10">
         <v>221</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="10">
         <v>1267</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D17" s="10">
         <v>221</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="10">
         <v>903</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="10">
         <v>1492</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="10">
         <v>471</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="10">
         <v>618</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="10">
         <v>1349</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J17" s="10">
         <v>87</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="10">
         <v>1015</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L17" s="10">
         <v>755</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M17" s="10">
         <v>389</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="10">
         <f t="shared" si="0"/>
         <v>8788</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B18" s="10">
         <v>1087</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C18" s="10">
         <v>612</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D18" s="10">
         <v>1087</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="10">
         <v>298</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="10">
         <v>951</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="10">
         <v>1411</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="10">
         <v>76</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="10">
         <v>483</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J18" s="10">
         <v>1274</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="10">
         <v>839</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="10">
         <v>564</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M18" s="10">
         <v>1321</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="10">
         <f t="shared" si="0"/>
         <v>10003</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B19" s="10">
         <v>192</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C19" s="10">
         <v>1485</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="10">
         <v>192</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="10">
         <v>733</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="10">
         <v>1159</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G19" s="10">
         <v>427</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="10">
         <v>1006</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="10">
         <v>68</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J19" s="10">
         <v>1368</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="10">
         <v>589</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="10">
         <v>904</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M19" s="10">
         <v>256</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="10">
         <f t="shared" si="0"/>
         <v>8379</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B20" s="10">
         <v>1233</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="10">
         <v>365</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="10">
         <v>1233</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="10">
         <v>847</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="10">
         <v>59</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="10">
         <v>1440</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="10">
         <v>978</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="10">
         <v>514</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J20" s="10">
         <v>1302</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="10">
         <v>289</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L20" s="10">
         <v>1096</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M20" s="10">
         <v>701</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N20" s="10">
         <f t="shared" si="0"/>
         <v>10057</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B21" s="10">
         <v>432</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C21" s="10">
         <v>1189</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="10">
         <v>432</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="10">
         <v>1454</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="10">
         <v>621</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="10">
         <v>94</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="10">
         <v>806</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="10">
         <v>1337</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J21" s="10">
         <v>277</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="10">
         <v>999</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="10">
         <v>558</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M21" s="10">
         <v>1208</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="10">
         <f t="shared" si="0"/>
         <v>9407</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B22" s="10">
         <v>1381</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="10">
         <v>682</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="10">
         <v>1381</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="10">
         <v>161</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="10">
         <v>911</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G22" s="10">
         <v>1053</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="10">
         <v>47</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="10">
         <v>1476</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J22" s="10">
         <v>524</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="10">
         <v>1289</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="10">
         <v>396</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M22" s="10">
         <v>814</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="10">
         <f t="shared" si="0"/>
         <v>10115</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B23" s="10">
         <v>309</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C23" s="10">
         <v>1427</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="10">
         <v>309</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="10">
         <v>596</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="10">
         <v>1216</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G23" s="10">
         <v>83</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="10">
         <v>1011</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="10">
         <v>734</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J23" s="10">
         <v>1358</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="10">
         <v>462</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L23" s="10">
         <v>978</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M23" s="10">
         <v>219</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N23" s="10">
         <f t="shared" si="0"/>
         <v>8702</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="10">
         <v>1297</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C24" s="10">
         <v>554</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="10">
         <v>1297</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="10">
         <v>884</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="10">
         <v>66</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="10">
         <v>1405</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H24" s="10">
         <v>317</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I24" s="10">
         <v>742</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J24" s="10">
         <v>1123</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="10">
         <v>999</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L24" s="10">
         <v>1461</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M24" s="10">
         <v>408</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N24" s="10">
         <f t="shared" si="0"/>
         <v>10553</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B25" s="10">
         <v>273</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="10">
         <v>1108</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="10">
         <v>273</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="10">
         <v>1369</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="10">
         <v>521</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G25" s="10">
         <v>781</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H25" s="10">
         <v>94</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I25" s="10">
         <v>1246</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J25" s="10">
         <v>659</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="10">
         <v>987</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L25" s="10">
         <v>345</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M25" s="10">
         <v>1482</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N25" s="10">
         <f t="shared" si="0"/>
         <v>9138</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B26" s="10">
         <v>1174</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C26" s="10">
         <v>839</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D26" s="10">
         <v>1174</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="10">
         <v>462</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="10">
         <v>1021</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G26" s="10">
         <v>69</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H26" s="10">
         <v>1316</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I26" s="10">
         <v>598</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J26" s="10">
         <v>1450</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="10">
         <v>276</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L26" s="10">
         <v>910</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M26" s="10">
         <v>723</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N26" s="10">
         <f t="shared" si="0"/>
         <v>10012</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="10">
         <v>214</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C27" s="10">
         <v>1498</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="10">
         <v>214</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="10">
         <v>687</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="10">
         <v>1209</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="10">
         <v>358</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="10">
         <v>54</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="10">
         <v>1387</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J27" s="10">
         <v>944</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K27" s="10">
         <v>1065</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L27" s="10">
         <v>481</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M27" s="10">
         <v>812</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="10">
         <f t="shared" si="0"/>
         <v>8923</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B28" s="10">
         <v>1342</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="10">
         <v>497</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D28" s="10">
         <v>1342</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="10">
         <v>167</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="10">
         <v>999</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="10">
         <v>1421</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="10">
         <v>631</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="10">
         <v>889</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J28" s="10">
         <v>1104</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="10">
         <v>293</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="10">
         <v>756</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M28" s="10">
         <v>1286</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N28" s="10">
         <f t="shared" si="0"/>
         <v>10727</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B29" s="10">
         <v>5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="10">
         <v>55</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="10">
         <v>23</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="10">
         <v>123</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="10">
         <v>112</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="10">
         <v>56</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="10">
         <v>55</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="10">
         <v>77</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J29" s="10">
         <v>33</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="10">
         <v>44</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="10">
         <v>26</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M29" s="10">
         <v>36</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N29" s="10">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B30" s="10">
         <v>45</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="10">
         <v>251</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="10">
         <v>41</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="10">
         <v>88</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="10">
         <v>43</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="10">
         <v>52</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="10">
         <v>14</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="10">
         <v>63</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J30" s="10">
         <v>89</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="10">
         <v>65</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="10">
         <v>67</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M30" s="10">
         <v>55</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N30" s="10">
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B31" s="10">
         <v>55</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C31" s="10">
         <v>21</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="10">
         <v>23</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="10">
         <v>14</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="10">
         <v>51</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="10">
         <v>42</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="10">
         <v>16</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="10">
         <v>39</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J31" s="10">
         <v>56</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="10">
         <v>24</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L31" s="10">
         <v>25</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M31" s="10">
         <v>44</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N31" s="10">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B32" s="10">
         <v>54</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="10">
         <v>23</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D32" s="10">
         <v>55</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="10">
         <v>15</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="10">
         <v>42</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="10">
         <v>15</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H32" s="10">
         <v>63</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I32" s="10">
         <v>151</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J32" s="10">
         <v>35</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="10">
         <v>45</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L32" s="10">
         <v>12</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M32" s="10">
         <v>45</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N32" s="10">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B33" s="10">
         <v>52</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="10">
         <v>14</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="10">
         <v>111</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="10">
         <v>145</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="10">
         <v>452</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="10">
         <v>16</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H33" s="10">
         <v>21</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I33" s="10">
         <v>11</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J33" s="10">
         <v>52</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K33" s="10">
         <v>46</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L33" s="10">
         <v>55</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M33" s="10">
         <v>14</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N33" s="10">
         <f t="shared" si="0"/>
         <v>989</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B34" s="10">
         <v>117</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="10">
         <v>842</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D34" s="10">
         <v>117</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="10">
         <v>1399</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="10">
         <v>456</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G34" s="10">
         <v>1203</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H34" s="10">
         <v>98</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="10">
         <v>611</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J34" s="10">
         <v>1442</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K34" s="10">
         <v>375</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L34" s="10">
         <v>1091</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M34" s="10">
         <v>267</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N34" s="10">
         <f t="shared" si="0"/>
         <v>8018</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B35" s="10">
         <v>1488</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="10">
         <v>512</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="10">
         <v>1488</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="10">
         <v>203</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="10">
         <v>964</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="10">
         <v>781</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="10">
         <v>1314</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I35" s="10">
         <v>55</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J35" s="10">
         <v>1027</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K35" s="10">
         <v>688</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L35" s="10">
         <v>419</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M35" s="10">
         <v>1460</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N35" s="10">
         <f t="shared" si="0"/>
         <v>10399</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B36" s="10">
         <v>1254</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="10">
         <v>102</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="10">
         <v>55</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="10">
         <v>1265</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="10">
         <v>1201</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="10">
         <v>251</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H36" s="10">
         <v>194</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I36" s="10">
         <v>154</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J36" s="10">
         <v>196</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K36" s="10">
         <v>994</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L36" s="10">
         <v>254</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M36" s="10">
         <v>1665</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N36" s="10">
         <f t="shared" si="0"/>
         <v>7585</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B37" s="10">
         <v>1087</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C37" s="10">
         <v>612</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="10">
         <v>1087</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="10">
         <v>298</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="10">
         <v>951</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="10">
         <v>1411</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H37" s="10">
         <v>76</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I37" s="10">
         <v>483</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J37" s="10">
         <v>1274</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K37" s="10">
         <v>839</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L37" s="10">
         <v>564</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M37" s="10">
         <v>1321</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N37" s="10">
         <f t="shared" si="0"/>
         <v>10003</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B38" s="10">
         <v>192</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C38" s="10">
         <v>1485</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D38" s="10">
         <v>192</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="10">
         <v>733</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="10">
         <v>1159</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G38" s="10">
         <v>427</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H38" s="10">
         <v>1006</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I38" s="10">
         <v>68</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J38" s="10">
         <v>1368</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K38" s="10">
         <v>589</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L38" s="10">
         <v>904</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M38" s="10">
         <v>256</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N38" s="10">
         <f t="shared" si="0"/>
         <v>8379</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B39" s="10">
         <v>1233</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C39" s="10">
         <v>365</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="10">
         <v>1233</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="10">
         <v>847</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="10">
         <v>59</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G39" s="10">
         <v>1440</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="10">
         <v>978</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I39" s="10">
         <v>514</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J39" s="10">
         <v>1302</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K39" s="10">
         <v>289</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L39" s="10">
         <v>1096</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M39" s="10">
         <v>701</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N39" s="10">
         <f t="shared" si="0"/>
         <v>10057</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B40" s="10">
         <v>432</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C40" s="10">
         <v>1189</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D40" s="10">
         <v>432</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="10">
         <v>1454</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="10">
         <v>621</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G40" s="10">
         <v>94</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="10">
         <v>806</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="10">
         <v>1337</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J40" s="10">
         <v>277</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K40" s="10">
         <v>999</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L40" s="10">
         <v>558</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M40" s="10">
         <v>1208</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N40" s="10">
         <f t="shared" si="0"/>
         <v>9407</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B41" s="10">
         <v>1381</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C41" s="10">
         <v>682</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D41" s="10">
         <v>1381</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="10">
         <v>161</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="10">
         <v>911</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="10">
         <v>1053</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="10">
         <v>47</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="10">
         <v>1476</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J41" s="10">
         <v>524</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K41" s="10">
         <v>1289</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L41" s="10">
         <v>396</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M41" s="10">
         <v>814</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N41" s="10">
         <f t="shared" si="0"/>
         <v>10115</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B42" s="10">
         <v>309</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C42" s="10">
         <v>1427</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D42" s="10">
         <v>309</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="10">
         <v>596</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="10">
         <v>1216</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="10">
         <v>83</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="10">
         <v>1011</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I42" s="10">
         <v>734</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J42" s="10">
         <v>1358</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K42" s="10">
         <v>462</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L42" s="10">
         <v>978</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M42" s="10">
         <v>219</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N42" s="10">
         <f t="shared" si="0"/>
         <v>8702</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B43" s="10">
         <v>1297</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C43" s="10">
         <v>554</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="10">
         <v>1297</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="10">
         <v>884</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="10">
         <v>66</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="10">
         <v>1405</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="10">
         <v>317</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I43" s="10">
         <v>742</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J43" s="10">
         <v>1123</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K43" s="10">
         <v>999</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L43" s="10">
         <v>1461</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M43" s="10">
         <v>408</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N43" s="10">
         <f t="shared" si="0"/>
         <v>10553</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B44" s="10">
         <v>273</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C44" s="10">
         <v>1108</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="10">
         <v>273</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="10">
         <v>1369</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="10">
         <v>521</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="10">
         <v>781</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H44" s="10">
         <v>94</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I44" s="10">
         <v>1246</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J44" s="10">
         <v>659</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K44" s="10">
         <v>987</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L44" s="10">
         <v>345</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M44" s="10">
         <v>1482</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N44" s="10">
         <f t="shared" si="0"/>
         <v>9138</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B45" s="10">
         <v>1174</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C45" s="10">
         <v>839</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="10">
         <v>1174</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="10">
         <v>462</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="10">
         <v>1021</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="10">
         <v>69</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H45" s="10">
         <v>1316</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I45" s="10">
         <v>598</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J45" s="10">
         <v>1450</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K45" s="10">
         <v>276</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L45" s="10">
         <v>910</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M45" s="10">
         <v>723</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N45" s="10">
         <f t="shared" si="0"/>
         <v>10012</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B46" s="10">
         <v>214</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="10">
         <v>1498</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="10">
         <v>214</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="10">
         <v>687</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="10">
         <v>1209</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="10">
         <v>358</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H46" s="10">
         <v>54</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I46" s="10">
         <v>1387</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J46" s="10">
         <v>944</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K46" s="10">
         <v>1065</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L46" s="10">
         <v>481</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M46" s="10">
         <v>812</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N46" s="10">
         <f t="shared" si="0"/>
         <v>8923</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B47" s="10">
         <v>1342</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C47" s="10">
         <v>497</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="10">
         <v>1342</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="10">
         <v>167</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="10">
         <v>999</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="10">
         <v>1421</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="10">
         <v>631</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="10">
         <v>889</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J47" s="10">
         <v>1104</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K47" s="10">
         <v>293</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L47" s="10">
         <v>756</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M47" s="10">
         <v>1286</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N47" s="10">
         <f t="shared" si="0"/>
         <v>10727</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B48" s="10">
         <v>5</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C48" s="10">
         <v>55</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D48" s="10">
         <v>23</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="10">
         <v>123</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="10">
         <v>112</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G48" s="10">
         <v>56</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H48" s="10">
         <v>55</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I48" s="10">
         <v>77</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J48" s="10">
         <v>33</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K48" s="10">
         <v>44</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L48" s="10">
         <v>26</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M48" s="10">
         <v>36</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N48" s="10">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B49" s="10">
         <v>45</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C49" s="10">
         <v>251</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="10">
         <v>41</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="10">
         <v>88</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="10">
         <v>43</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G49" s="10">
         <v>52</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H49" s="10">
         <v>14</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I49" s="10">
         <v>63</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J49" s="10">
         <v>89</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K49" s="10">
         <v>65</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L49" s="10">
         <v>67</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M49" s="10">
         <v>55</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N49" s="10">
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B50" s="10">
         <v>1087</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C50" s="10">
         <v>612</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D50" s="10">
         <v>1087</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="10">
         <v>298</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="10">
         <v>951</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G50" s="10">
         <v>1411</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H50" s="10">
         <v>76</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I50" s="10">
         <v>483</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J50" s="10">
         <v>1274</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K50" s="10">
         <v>839</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L50" s="10">
         <v>564</v>
       </c>
-      <c r="M49" s="9">
+      <c r="M50" s="10">
         <v>1321</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N50" s="10">
         <f t="shared" si="0"/>
         <v>10003</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B51" s="10">
         <v>192</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C51" s="10">
         <v>1485</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="10">
         <v>192</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="10">
         <v>733</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="10">
         <v>1159</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G51" s="10">
         <v>427</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H51" s="10">
         <v>1006</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I51" s="10">
         <v>68</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J51" s="10">
         <v>1368</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K51" s="10">
         <v>589</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L51" s="10">
         <v>904</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M51" s="10">
         <v>256</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N51" s="10">
         <f t="shared" si="0"/>
         <v>8379</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B52" s="10">
         <v>1233</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C52" s="10">
         <v>365</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D52" s="10">
         <v>1233</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="10">
         <v>847</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="10">
         <v>59</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G52" s="10">
         <v>1440</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H52" s="10">
         <v>978</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I52" s="10">
         <v>514</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J52" s="10">
         <v>1302</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K52" s="10">
         <v>289</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L52" s="10">
         <v>1096</v>
       </c>
-      <c r="M51" s="9">
+      <c r="M52" s="10">
         <v>701</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N52" s="10">
         <f t="shared" si="0"/>
         <v>10057</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B53" s="10">
         <v>432</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C53" s="10">
         <v>1189</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D53" s="10">
         <v>432</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="10">
         <v>1454</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="10">
         <v>621</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G53" s="10">
         <v>94</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H53" s="10">
         <v>806</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I53" s="10">
         <v>1337</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J53" s="10">
         <v>277</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K53" s="10">
         <v>999</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L53" s="10">
         <v>558</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M53" s="10">
         <v>1208</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N53" s="10">
         <f t="shared" si="0"/>
         <v>9407</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B54" s="10">
         <v>1381</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C54" s="10">
         <v>682</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D54" s="10">
         <v>1381</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="10">
         <v>161</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="10">
         <v>911</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G54" s="10">
         <v>1053</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H54" s="10">
         <v>47</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I54" s="10">
         <v>1476</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J54" s="10">
         <v>524</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K54" s="10">
         <v>1289</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L54" s="10">
         <v>396</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M54" s="10">
         <v>814</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N54" s="10">
         <f t="shared" si="0"/>
         <v>10115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="9">
-        <v>309</v>
-      </c>
-      <c r="C54" s="9">
-        <v>1427</v>
-      </c>
-      <c r="D54" s="9">
-        <v>309</v>
-      </c>
-      <c r="E54" s="9">
-        <v>596</v>
-      </c>
-      <c r="F54" s="9">
-        <v>1216</v>
-      </c>
-      <c r="G54" s="9">
-        <v>83</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1011</v>
-      </c>
-      <c r="I54" s="9">
-        <v>734</v>
-      </c>
-      <c r="J54" s="9">
-        <v>1358</v>
-      </c>
-      <c r="K54" s="9">
-        <v>462</v>
-      </c>
-      <c r="L54" s="9">
-        <v>978</v>
-      </c>
-      <c r="M54" s="9">
-        <v>219</v>
-      </c>
-      <c r="N54" s="9">
-        <f t="shared" si="0"/>
-        <v>8702</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="10">
+        <v>309</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1427</v>
+      </c>
+      <c r="D55" s="10">
+        <v>309</v>
+      </c>
+      <c r="E55" s="10">
+        <v>596</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1216</v>
+      </c>
+      <c r="G55" s="10">
+        <v>83</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1011</v>
+      </c>
+      <c r="I55" s="10">
+        <v>734</v>
+      </c>
+      <c r="J55" s="10">
+        <v>1358</v>
+      </c>
+      <c r="K55" s="10">
+        <v>462</v>
+      </c>
+      <c r="L55" s="10">
+        <v>978</v>
+      </c>
+      <c r="M55" s="10">
+        <v>219</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="0"/>
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B56" s="10">
         <v>1297</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C56" s="10">
         <v>554</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D56" s="10">
         <v>1297</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="10">
         <v>884</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="10">
         <v>66</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G56" s="10">
         <v>1405</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H56" s="10">
         <v>317</v>
       </c>
-      <c r="I55" s="9">
+      <c r="I56" s="10">
         <v>742</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J56" s="10">
         <v>1123</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K56" s="10">
         <v>999</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L56" s="10">
         <v>1461</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M56" s="10">
         <v>408</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N56" s="10">
         <f t="shared" si="0"/>
         <v>10553</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B57" s="10">
         <v>273</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C57" s="10">
         <v>1108</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="10">
         <v>273</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="10">
         <v>1369</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="10">
         <v>521</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G57" s="10">
         <v>781</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H57" s="10">
         <v>94</v>
       </c>
-      <c r="I56" s="9">
+      <c r="I57" s="10">
         <v>1246</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J57" s="10">
         <v>659</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K57" s="10">
         <v>987</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L57" s="10">
         <v>345</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M57" s="10">
         <v>1482</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N57" s="10">
         <f t="shared" si="0"/>
         <v>9138</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B58" s="10">
         <v>1174</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C58" s="10">
         <v>839</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D58" s="10">
         <v>1174</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="10">
         <v>462</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="10">
         <v>1021</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G58" s="10">
         <v>69</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H58" s="10">
         <v>1316</v>
       </c>
-      <c r="I57" s="9">
+      <c r="I58" s="10">
         <v>598</v>
       </c>
-      <c r="J57" s="9">
+      <c r="J58" s="10">
         <v>1450</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K58" s="10">
         <v>276</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L58" s="10">
         <v>910</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M58" s="10">
         <v>723</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N58" s="10">
         <f t="shared" si="0"/>
         <v>10012</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B59" s="10">
         <v>214</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C59" s="10">
         <v>1498</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="10">
         <v>214</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="10">
         <v>687</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="10">
         <v>1209</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="10">
         <v>358</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H59" s="10">
         <v>54</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I59" s="10">
         <v>1387</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J59" s="10">
         <v>944</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K59" s="10">
         <v>1065</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L59" s="10">
         <v>481</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M59" s="10">
         <v>812</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N59" s="10">
         <f t="shared" si="0"/>
         <v>8923</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B60" s="10">
         <v>1342</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C60" s="10">
         <v>497</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D60" s="10">
         <v>1342</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="10">
         <v>167</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="10">
         <v>999</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G60" s="10">
         <v>1421</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H60" s="10">
         <v>631</v>
       </c>
-      <c r="I59" s="9">
+      <c r="I60" s="10">
         <v>889</v>
       </c>
-      <c r="J59" s="9">
+      <c r="J60" s="10">
         <v>1104</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K60" s="10">
         <v>293</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L60" s="10">
         <v>756</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M60" s="10">
         <v>1286</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N60" s="10">
         <f t="shared" si="0"/>
         <v>10727</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B61" s="10">
         <v>5</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C61" s="10">
         <v>55</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="10">
         <v>23</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="10">
         <v>123</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="10">
         <v>112</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G61" s="10">
         <v>56</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H61" s="10">
         <v>55</v>
       </c>
-      <c r="I60" s="9">
+      <c r="I61" s="10">
         <v>77</v>
       </c>
-      <c r="J60" s="9">
+      <c r="J61" s="10">
         <v>33</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K61" s="10">
         <v>44</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L61" s="10">
         <v>26</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M61" s="10">
         <v>36</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N61" s="10">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B62" s="10">
         <v>45</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C62" s="10">
         <v>251</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D62" s="10">
         <v>41</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="10">
         <v>88</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="10">
         <v>43</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G62" s="10">
         <v>52</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H62" s="10">
         <v>14</v>
       </c>
-      <c r="I61" s="9">
+      <c r="I62" s="10">
         <v>63</v>
       </c>
-      <c r="J61" s="9">
+      <c r="J62" s="10">
         <v>89</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K62" s="10">
         <v>65</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L62" s="10">
         <v>67</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M62" s="10">
         <v>55</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N62" s="10">
         <f t="shared" si="0"/>
         <v>873</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B63" s="10">
         <v>55</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C63" s="10">
         <v>21</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="10">
         <v>23</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="10">
         <v>14</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="10">
         <v>51</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G63" s="10">
         <v>42</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H63" s="10">
         <v>16</v>
       </c>
-      <c r="I62" s="9">
+      <c r="I63" s="10">
         <v>39</v>
       </c>
-      <c r="J62" s="9">
+      <c r="J63" s="10">
         <v>56</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K63" s="10">
         <v>24</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L63" s="10">
         <v>25</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M63" s="10">
         <v>44</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N63" s="10">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B64" s="10">
         <v>54</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C64" s="10">
         <v>23</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D64" s="10">
         <v>55</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="10">
         <v>15</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="10">
         <v>42</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G64" s="10">
         <v>15</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H64" s="10">
         <v>63</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I64" s="10">
         <v>151</v>
       </c>
-      <c r="J63" s="9">
+      <c r="J64" s="10">
         <v>35</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K64" s="10">
         <v>45</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L64" s="10">
         <v>12</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M64" s="10">
         <v>45</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N64" s="10">
         <f t="shared" si="0"/>
         <v>555</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B65" s="10">
         <v>52</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C65" s="10">
         <v>14</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D65" s="10">
         <v>111</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="10">
         <v>145</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="10">
         <v>452</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G65" s="10">
         <v>16</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H65" s="10">
         <v>21</v>
       </c>
-      <c r="I64" s="9">
+      <c r="I65" s="10">
         <v>11</v>
       </c>
-      <c r="J64" s="9">
+      <c r="J65" s="10">
         <v>52</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K65" s="10">
         <v>46</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L65" s="10">
         <v>55</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M65" s="10">
         <v>14</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N65" s="10">
         <f t="shared" si="0"/>
         <v>989</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B66" s="10">
         <v>117</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C66" s="10">
         <v>842</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D66" s="10">
         <v>117</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="10">
         <v>1399</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="10">
         <v>456</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G66" s="10">
         <v>1203</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H66" s="10">
         <v>98</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I66" s="10">
         <v>611</v>
       </c>
-      <c r="J65" s="9">
+      <c r="J66" s="10">
         <v>1442</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K66" s="10">
         <v>375</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L66" s="10">
         <v>1091</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M66" s="10">
         <v>267</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N66" s="10">
         <f t="shared" si="0"/>
         <v>8018</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B67" s="10">
         <v>1488</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C67" s="10">
         <v>512</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="10">
         <v>1488</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="10">
         <v>203</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="10">
         <v>964</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G67" s="10">
         <v>781</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H67" s="10">
         <v>1314</v>
       </c>
-      <c r="I66" s="9">
+      <c r="I67" s="10">
         <v>55</v>
       </c>
-      <c r="J66" s="9">
+      <c r="J67" s="10">
         <v>1027</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K67" s="10">
         <v>688</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L67" s="10">
         <v>419</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M67" s="10">
         <v>1460</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N67" s="10">
         <f t="shared" si="0"/>
         <v>10399</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B68" s="10">
         <v>1254</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C68" s="10">
         <v>102</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D68" s="10">
         <v>55</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="10">
         <v>1265</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="10">
         <v>1201</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G68" s="10">
         <v>251</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H68" s="10">
         <v>194</v>
       </c>
-      <c r="I67" s="9">
+      <c r="I68" s="10">
         <v>154</v>
       </c>
-      <c r="J67" s="9">
+      <c r="J68" s="10">
         <v>196</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K68" s="10">
         <v>994</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L68" s="10">
         <v>254</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M68" s="10">
         <v>1665</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N68" s="10">
         <f t="shared" si="0"/>
         <v>7585</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B69" s="10">
         <v>1087</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C69" s="10">
         <v>612</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="10">
         <v>1087</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="10">
         <v>298</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="10">
         <v>951</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="10">
         <v>1411</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H69" s="10">
         <v>76</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I69" s="10">
         <v>483</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J69" s="10">
         <v>1274</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K69" s="10">
         <v>839</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L69" s="10">
         <v>564</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M69" s="10">
         <v>1321</v>
       </c>
-      <c r="N68" s="9">
-        <f t="shared" ref="N68:N81" si="1">SUM(B68:M68)</f>
+      <c r="N69" s="10">
+        <f t="shared" ref="N69:N82" si="1">SUM(B69:M69)</f>
         <v>10003</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B70" s="10">
         <v>192</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C70" s="10">
         <v>1485</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D70" s="10">
         <v>192</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="10">
         <v>733</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="10">
         <v>1159</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="10">
         <v>427</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H70" s="10">
         <v>1006</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I70" s="10">
         <v>68</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J70" s="10">
         <v>1368</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K70" s="10">
         <v>589</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L70" s="10">
         <v>904</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M70" s="10">
         <v>256</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N70" s="10">
         <f t="shared" si="1"/>
         <v>8379</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B71" s="10">
         <v>1233</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C71" s="10">
         <v>365</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="10">
         <v>1233</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="10">
         <v>847</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="10">
         <v>59</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G71" s="10">
         <v>1440</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H71" s="10">
         <v>978</v>
       </c>
-      <c r="I70" s="9">
+      <c r="I71" s="10">
         <v>514</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J71" s="10">
         <v>1302</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K71" s="10">
         <v>289</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L71" s="10">
         <v>1096</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M71" s="10">
         <v>701</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N71" s="14">
         <f t="shared" si="1"/>
         <v>10057</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B72" s="10">
         <v>432</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C72" s="10">
         <v>1189</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D72" s="10">
         <v>432</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="10">
         <v>1454</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="10">
         <v>621</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="10">
         <v>94</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H72" s="10">
         <v>806</v>
       </c>
-      <c r="I71" s="9">
+      <c r="I72" s="10">
         <v>1337</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J72" s="10">
         <v>277</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K72" s="10">
         <v>999</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L72" s="10">
         <v>558</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M72" s="10">
         <v>1208</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N72" s="10">
         <f t="shared" si="1"/>
         <v>9407</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B73" s="10">
         <v>1381</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C73" s="10">
         <v>682</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="10">
         <v>1381</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="10">
         <v>161</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="10">
         <v>911</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G73" s="10">
         <v>1053</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H73" s="10">
         <v>47</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I73" s="10">
         <v>1476</v>
       </c>
-      <c r="J72" s="9">
+      <c r="J73" s="10">
         <v>524</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K73" s="10">
         <v>1289</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L73" s="10">
         <v>396</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M73" s="10">
         <v>814</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N73" s="10">
         <f t="shared" si="1"/>
         <v>10115</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B74" s="10">
         <v>5</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C74" s="10">
         <v>55</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D74" s="10">
         <v>23</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="10">
         <v>123</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="10">
         <v>112</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G74" s="10">
         <v>56</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H74" s="10">
         <v>55</v>
       </c>
-      <c r="I73" s="9">
+      <c r="I74" s="10">
         <v>77</v>
       </c>
-      <c r="J73" s="9">
+      <c r="J74" s="10">
         <v>33</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K74" s="10">
         <v>44</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L74" s="10">
         <v>26</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M74" s="10">
         <v>36</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N74" s="10">
         <f t="shared" si="1"/>
         <v>645</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B75" s="10">
         <v>45</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C75" s="10">
         <v>251</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="10">
         <v>41</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="10">
         <v>88</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="10">
         <v>43</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G75" s="10">
         <v>52</v>
       </c>
-      <c r="H74" s="9">
+      <c r="H75" s="10">
         <v>14</v>
       </c>
-      <c r="I74" s="9">
+      <c r="I75" s="10">
         <v>63</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J75" s="10">
         <v>89</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K75" s="10">
         <v>65</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L75" s="10">
         <v>67</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M75" s="10">
         <v>55</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N75" s="10">
         <f t="shared" si="1"/>
         <v>873</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B76" s="10">
         <v>55</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C76" s="10">
         <v>21</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D76" s="10">
         <v>23</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="10">
         <v>14</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="10">
         <v>51</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G76" s="10">
         <v>42</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H76" s="10">
         <v>16</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I76" s="10">
         <v>39</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J76" s="10">
         <v>56</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K76" s="10">
         <v>24</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L76" s="10">
         <v>25</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M76" s="10">
         <v>44</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N76" s="10">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B77" s="10">
         <v>54</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C77" s="10">
         <v>23</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="10">
         <v>55</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="10">
         <v>15</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="10">
         <v>42</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G77" s="10">
         <v>15</v>
       </c>
-      <c r="H76" s="9">
+      <c r="H77" s="10">
         <v>63</v>
       </c>
-      <c r="I76" s="9">
+      <c r="I77" s="10">
         <v>151</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J77" s="10">
         <v>35</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K77" s="10">
         <v>45</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L77" s="10">
         <v>12</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M77" s="10">
         <v>45</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N77" s="10">
         <f t="shared" si="1"/>
         <v>555</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B78" s="10">
         <v>52</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C78" s="10">
         <v>14</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D78" s="10">
         <v>111</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="10">
         <v>145</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="10">
         <v>452</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G78" s="10">
         <v>16</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H78" s="10">
         <v>21</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I78" s="10">
         <v>11</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J78" s="10">
         <v>52</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K78" s="10">
         <v>46</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L78" s="10">
         <v>55</v>
       </c>
-      <c r="M77" s="9">
+      <c r="M78" s="10">
         <v>14</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N78" s="10">
         <f t="shared" si="1"/>
         <v>989</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B79" s="10">
         <v>117</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C79" s="10">
         <v>842</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="10">
         <v>117</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="10">
         <v>1399</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="10">
         <v>456</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G79" s="10">
         <v>1203</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H79" s="10">
         <v>98</v>
       </c>
-      <c r="I78" s="9">
+      <c r="I79" s="10">
         <v>611</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J79" s="10">
         <v>1442</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K79" s="10">
         <v>375</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L79" s="10">
         <v>1091</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M79" s="10">
         <v>267</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N79" s="10">
         <f t="shared" si="1"/>
         <v>8018</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B80" s="10">
         <v>45</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C80" s="10">
         <v>251</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D80" s="10">
         <v>41</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="10">
         <v>88</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="10">
         <v>43</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G80" s="10">
         <v>52</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H80" s="10">
         <v>14</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I80" s="10">
         <v>63</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J80" s="10">
         <v>89</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K80" s="10">
         <v>65</v>
       </c>
-      <c r="L79" s="9">
+      <c r="L80" s="10">
         <v>67</v>
       </c>
-      <c r="M79" s="9">
+      <c r="M80" s="10">
         <v>55</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N80" s="10">
         <f t="shared" si="1"/>
         <v>873</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B81" s="10">
         <v>55</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C81" s="10">
         <v>21</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="10">
         <v>23</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="10">
         <v>14</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="10">
         <v>51</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G81" s="10">
         <v>42</v>
       </c>
-      <c r="H80" s="9">
+      <c r="H81" s="10">
         <v>16</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I81" s="10">
         <v>39</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J81" s="10">
         <v>56</v>
       </c>
-      <c r="K80" s="9">
+      <c r="K81" s="10">
         <v>24</v>
       </c>
-      <c r="L80" s="9">
+      <c r="L81" s="10">
         <v>25</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M81" s="10">
         <v>44</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N81" s="10">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="9">
-        <f t="shared" ref="B81:M81" si="2">SUM(B3:B80)</f>
+      <c r="B82" s="10">
+        <f>SUM(B3:B81)</f>
         <v>44683</v>
       </c>
-      <c r="C81" s="9">
-        <f t="shared" si="2"/>
+      <c r="C82" s="10">
+        <f t="shared" ref="C82:M82" si="2">SUM(C3:C81)</f>
         <v>49034</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D82" s="10">
         <f t="shared" si="2"/>
         <v>42431</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="10">
         <f t="shared" si="2"/>
         <v>41692</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="10">
         <f t="shared" si="2"/>
         <v>46498</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G82" s="10">
         <f t="shared" si="2"/>
         <v>42959</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H82" s="10">
         <f t="shared" si="2"/>
         <v>32259</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I82" s="10">
         <f t="shared" si="2"/>
         <v>43425</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J82" s="10">
         <f t="shared" si="2"/>
         <v>52410</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K82" s="10">
         <f t="shared" si="2"/>
         <v>42077</v>
       </c>
-      <c r="L81" s="9">
+      <c r="L82" s="10">
         <f t="shared" si="2"/>
         <v>41688</v>
       </c>
-      <c r="M81" s="9">
+      <c r="M82" s="10">
         <f t="shared" si="2"/>
         <v>46078</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N82" s="10">
         <f t="shared" si="1"/>
         <v>525234</v>
       </c>
     </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2024</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="M84" s="2">
+        <v>2025</v>
+      </c>
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="10">
+        <v>5</v>
+      </c>
+      <c r="C86" s="10">
+        <v>55</v>
+      </c>
+      <c r="D86" s="10">
+        <v>23</v>
+      </c>
+      <c r="E86" s="10">
+        <v>123</v>
+      </c>
+      <c r="F86" s="10">
+        <v>112</v>
+      </c>
+      <c r="G86" s="10">
+        <v>56</v>
+      </c>
+      <c r="H86" s="10">
+        <v>55</v>
+      </c>
+      <c r="I86" s="10">
+        <v>77</v>
+      </c>
+      <c r="J86" s="10">
+        <v>33</v>
+      </c>
+      <c r="K86" s="10">
+        <v>44</v>
+      </c>
+      <c r="L86" s="10">
+        <v>26</v>
+      </c>
+      <c r="M86" s="10">
+        <v>36</v>
+      </c>
+      <c r="N86" s="10">
+        <f t="shared" ref="N86:N100" si="3">SUM(B86:M86)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="10">
+        <v>45</v>
+      </c>
+      <c r="C87" s="10">
+        <v>251</v>
+      </c>
+      <c r="D87" s="10">
+        <v>41</v>
+      </c>
+      <c r="E87" s="10">
+        <v>88</v>
+      </c>
+      <c r="F87" s="10">
+        <v>43</v>
+      </c>
+      <c r="G87" s="10">
+        <v>52</v>
+      </c>
+      <c r="H87" s="10">
+        <v>14</v>
+      </c>
+      <c r="I87" s="10">
+        <v>63</v>
+      </c>
+      <c r="J87" s="10">
+        <v>89</v>
+      </c>
+      <c r="K87" s="10">
+        <v>65</v>
+      </c>
+      <c r="L87" s="10">
+        <v>67</v>
+      </c>
+      <c r="M87" s="10">
+        <v>55</v>
+      </c>
+      <c r="N87" s="10">
+        <f t="shared" si="3"/>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="10">
+        <v>55</v>
+      </c>
+      <c r="C88" s="10">
+        <v>21</v>
+      </c>
+      <c r="D88" s="10">
+        <v>23</v>
+      </c>
+      <c r="E88" s="10">
+        <v>14</v>
+      </c>
+      <c r="F88" s="10">
+        <v>51</v>
+      </c>
+      <c r="G88" s="10">
+        <v>42</v>
+      </c>
+      <c r="H88" s="10">
+        <v>16</v>
+      </c>
+      <c r="I88" s="10">
+        <v>39</v>
+      </c>
+      <c r="J88" s="10">
+        <v>56</v>
+      </c>
+      <c r="K88" s="10">
+        <v>24</v>
+      </c>
+      <c r="L88" s="10">
+        <v>25</v>
+      </c>
+      <c r="M88" s="10">
+        <v>44</v>
+      </c>
+      <c r="N88" s="10">
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="10">
+        <v>54</v>
+      </c>
+      <c r="C89" s="10">
+        <v>23</v>
+      </c>
+      <c r="D89" s="10">
+        <v>55</v>
+      </c>
+      <c r="E89" s="10">
+        <v>15</v>
+      </c>
+      <c r="F89" s="10">
+        <v>42</v>
+      </c>
+      <c r="G89" s="10">
+        <v>15</v>
+      </c>
+      <c r="H89" s="10">
+        <v>63</v>
+      </c>
+      <c r="I89" s="10">
+        <v>151</v>
+      </c>
+      <c r="J89" s="10">
+        <v>35</v>
+      </c>
+      <c r="K89" s="10">
+        <v>45</v>
+      </c>
+      <c r="L89" s="10">
+        <v>12</v>
+      </c>
+      <c r="M89" s="10">
+        <v>45</v>
+      </c>
+      <c r="N89" s="10">
+        <f t="shared" si="3"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="10">
+        <v>52</v>
+      </c>
+      <c r="C90" s="10">
+        <v>14</v>
+      </c>
+      <c r="D90" s="10">
+        <v>111</v>
+      </c>
+      <c r="E90" s="10">
+        <v>145</v>
+      </c>
+      <c r="F90" s="10">
+        <v>452</v>
+      </c>
+      <c r="G90" s="10">
+        <v>16</v>
+      </c>
+      <c r="H90" s="10">
+        <v>21</v>
+      </c>
+      <c r="I90" s="10">
+        <v>11</v>
+      </c>
+      <c r="J90" s="10">
+        <v>52</v>
+      </c>
+      <c r="K90" s="10">
+        <v>46</v>
+      </c>
+      <c r="L90" s="10">
+        <v>55</v>
+      </c>
+      <c r="M90" s="10">
+        <v>14</v>
+      </c>
+      <c r="N90" s="10">
+        <f t="shared" si="3"/>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="10">
+        <v>117</v>
+      </c>
+      <c r="C91" s="10">
+        <v>842</v>
+      </c>
+      <c r="D91" s="10">
+        <v>117</v>
+      </c>
+      <c r="E91" s="10">
+        <v>1399</v>
+      </c>
+      <c r="F91" s="10">
+        <v>456</v>
+      </c>
+      <c r="G91" s="10">
+        <v>1203</v>
+      </c>
+      <c r="H91" s="10">
+        <v>98</v>
+      </c>
+      <c r="I91" s="10">
+        <v>611</v>
+      </c>
+      <c r="J91" s="10">
+        <v>1442</v>
+      </c>
+      <c r="K91" s="10">
+        <v>375</v>
+      </c>
+      <c r="L91" s="10">
+        <v>1091</v>
+      </c>
+      <c r="M91" s="10">
+        <v>267</v>
+      </c>
+      <c r="N91" s="10">
+        <f t="shared" si="3"/>
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="10">
+        <v>1488</v>
+      </c>
+      <c r="C92" s="10">
+        <v>512</v>
+      </c>
+      <c r="D92" s="10">
+        <v>1488</v>
+      </c>
+      <c r="E92" s="10">
+        <v>203</v>
+      </c>
+      <c r="F92" s="10">
+        <v>964</v>
+      </c>
+      <c r="G92" s="10">
+        <v>781</v>
+      </c>
+      <c r="H92" s="10">
+        <v>1314</v>
+      </c>
+      <c r="I92" s="10">
+        <v>55</v>
+      </c>
+      <c r="J92" s="10">
+        <v>1027</v>
+      </c>
+      <c r="K92" s="10">
+        <v>688</v>
+      </c>
+      <c r="L92" s="10">
+        <v>419</v>
+      </c>
+      <c r="M92" s="10">
+        <v>1460</v>
+      </c>
+      <c r="N92" s="10">
+        <f t="shared" si="3"/>
+        <v>10399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="10">
+        <v>332</v>
+      </c>
+      <c r="C93" s="10">
+        <v>1299</v>
+      </c>
+      <c r="D93" s="10">
+        <v>332</v>
+      </c>
+      <c r="E93" s="10">
+        <v>914</v>
+      </c>
+      <c r="F93" s="10">
+        <v>1407</v>
+      </c>
+      <c r="G93" s="10">
+        <v>276</v>
+      </c>
+      <c r="H93" s="10">
+        <v>67</v>
+      </c>
+      <c r="I93" s="10">
+        <v>1188</v>
+      </c>
+      <c r="J93" s="10">
+        <v>593</v>
+      </c>
+      <c r="K93" s="10">
+        <v>1012</v>
+      </c>
+      <c r="L93" s="10">
+        <v>458</v>
+      </c>
+      <c r="M93" s="10">
+        <v>845</v>
+      </c>
+      <c r="N93" s="10">
+        <f t="shared" si="3"/>
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="10">
+        <v>1356</v>
+      </c>
+      <c r="C94" s="10">
+        <v>721</v>
+      </c>
+      <c r="D94" s="10">
+        <v>1356</v>
+      </c>
+      <c r="E94" s="10">
+        <v>184</v>
+      </c>
+      <c r="F94" s="10">
+        <v>999</v>
+      </c>
+      <c r="G94" s="10">
+        <v>63</v>
+      </c>
+      <c r="H94" s="10">
+        <v>411</v>
+      </c>
+      <c r="I94" s="10">
+        <v>1472</v>
+      </c>
+      <c r="J94" s="10">
+        <v>520</v>
+      </c>
+      <c r="K94" s="10">
+        <v>1229</v>
+      </c>
+      <c r="L94" s="10">
+        <v>301</v>
+      </c>
+      <c r="M94" s="10">
+        <v>896</v>
+      </c>
+      <c r="N94" s="10">
+        <f t="shared" si="3"/>
+        <v>9508</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="10">
+        <v>278</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1449</v>
+      </c>
+      <c r="D95" s="10">
+        <v>278</v>
+      </c>
+      <c r="E95" s="10">
+        <v>654</v>
+      </c>
+      <c r="F95" s="10">
+        <v>1106</v>
+      </c>
+      <c r="G95" s="10">
+        <v>94</v>
+      </c>
+      <c r="H95" s="10">
+        <v>1362</v>
+      </c>
+      <c r="I95" s="10">
+        <v>487</v>
+      </c>
+      <c r="J95" s="10">
+        <v>825</v>
+      </c>
+      <c r="K95" s="10">
+        <v>359</v>
+      </c>
+      <c r="L95" s="10">
+        <v>1288</v>
+      </c>
+      <c r="M95" s="10">
+        <v>716</v>
+      </c>
+      <c r="N95" s="10">
+        <f t="shared" si="3"/>
+        <v>8896</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" s="10">
+        <v>1211</v>
+      </c>
+      <c r="C96" s="10">
+        <v>538</v>
+      </c>
+      <c r="D96" s="10">
+        <v>1211</v>
+      </c>
+      <c r="E96" s="10">
+        <v>412</v>
+      </c>
+      <c r="F96" s="10">
+        <v>89</v>
+      </c>
+      <c r="G96" s="10">
+        <v>1423</v>
+      </c>
+      <c r="H96" s="10">
+        <v>697</v>
+      </c>
+      <c r="I96" s="10">
+        <v>1054</v>
+      </c>
+      <c r="J96" s="10">
+        <v>266</v>
+      </c>
+      <c r="K96" s="10">
+        <v>911</v>
+      </c>
+      <c r="L96" s="10">
+        <v>1340</v>
+      </c>
+      <c r="M96" s="10">
+        <v>158</v>
+      </c>
+      <c r="N96" s="10">
+        <f t="shared" si="3"/>
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="10">
+        <v>345</v>
+      </c>
+      <c r="C97" s="10">
+        <v>1018</v>
+      </c>
+      <c r="D97" s="10">
+        <v>345</v>
+      </c>
+      <c r="E97" s="10">
+        <v>1466</v>
+      </c>
+      <c r="F97" s="10">
+        <v>522</v>
+      </c>
+      <c r="G97" s="10">
+        <v>780</v>
+      </c>
+      <c r="H97" s="10">
+        <v>1294</v>
+      </c>
+      <c r="I97" s="10">
+        <v>67</v>
+      </c>
+      <c r="J97" s="10">
+        <v>603</v>
+      </c>
+      <c r="K97" s="10">
+        <v>1182</v>
+      </c>
+      <c r="L97" s="10">
+        <v>944</v>
+      </c>
+      <c r="M97" s="10">
+        <v>231</v>
+      </c>
+      <c r="N97" s="10">
+        <f t="shared" si="3"/>
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="10">
+        <v>1379</v>
+      </c>
+      <c r="C98" s="10">
+        <v>499</v>
+      </c>
+      <c r="D98" s="10">
+        <v>1379</v>
+      </c>
+      <c r="E98" s="10">
+        <v>104</v>
+      </c>
+      <c r="F98" s="10">
+        <v>816</v>
+      </c>
+      <c r="G98" s="10">
+        <v>1218</v>
+      </c>
+      <c r="H98" s="10">
+        <v>392</v>
+      </c>
+      <c r="I98" s="10">
+        <v>985</v>
+      </c>
+      <c r="J98" s="10">
+        <v>54</v>
+      </c>
+      <c r="K98" s="10">
+        <v>1457</v>
+      </c>
+      <c r="L98" s="10">
+        <v>683</v>
+      </c>
+      <c r="M98" s="10">
+        <v>1109</v>
+      </c>
+      <c r="N98" s="10">
+        <f t="shared" si="3"/>
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="10">
+        <v>221</v>
+      </c>
+      <c r="C99" s="10">
+        <v>1267</v>
+      </c>
+      <c r="D99" s="10">
+        <v>221</v>
+      </c>
+      <c r="E99" s="10">
+        <v>903</v>
+      </c>
+      <c r="F99" s="10">
+        <v>1492</v>
+      </c>
+      <c r="G99" s="10">
+        <v>471</v>
+      </c>
+      <c r="H99" s="10">
+        <v>618</v>
+      </c>
+      <c r="I99" s="10">
+        <v>1349</v>
+      </c>
+      <c r="J99" s="10">
+        <v>87</v>
+      </c>
+      <c r="K99" s="10">
+        <v>1015</v>
+      </c>
+      <c r="L99" s="10">
+        <v>755</v>
+      </c>
+      <c r="M99" s="10">
+        <v>389</v>
+      </c>
+      <c r="N99" s="10">
+        <f t="shared" si="3"/>
+        <v>8788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="10">
+        <f>SUM(B86:B99)</f>
+        <v>6938</v>
+      </c>
+      <c r="C100" s="10">
+        <f>SUM(C86:C99)</f>
+        <v>8509</v>
+      </c>
+      <c r="D100" s="10">
+        <f>SUM(D86:D99)</f>
+        <v>6980</v>
+      </c>
+      <c r="E100" s="10">
+        <f>SUM(E86:E99)</f>
+        <v>6624</v>
+      </c>
+      <c r="F100" s="10">
+        <f>SUM(F86:F99)</f>
+        <v>8551</v>
+      </c>
+      <c r="G100" s="10">
+        <f>'[1]January''25'!AG100</f>
+        <v>4304</v>
+      </c>
+      <c r="H100" s="10">
+        <f>[1]February!AG100</f>
+        <v>3858</v>
+      </c>
+      <c r="I100" s="10">
+        <f>[1]March!AG100</f>
+        <v>4213</v>
+      </c>
+      <c r="J100" s="10">
+        <f>[1]April!AG100</f>
+        <v>3743</v>
+      </c>
+      <c r="K100" s="10">
+        <f>[1]May!AG100</f>
+        <v>3190</v>
+      </c>
+      <c r="L100" s="10">
+        <f>[1]June!AG100</f>
+        <v>3962</v>
+      </c>
+      <c r="M100" s="10">
+        <f>SUM(M86:M99)</f>
+        <v>6265</v>
+      </c>
+      <c r="N100" s="10">
+        <f t="shared" si="3"/>
+        <v>67137</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>